--- a/results/pvalue_OFFSIDES_all_Chem_AUPR+AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_all_Chem_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.046</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.014</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.170</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15.662</t>
+          <t>2.851</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15.501</t>
+          <t>2.283</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.595</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>16.355</t>
+          <t>1.669</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.284</t>
+          <t>35.953</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
